--- a/Assignment mistakes.xlsx
+++ b/Assignment mistakes.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\758158\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Tag</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Errors</t>
   </si>
@@ -138,12 +130,42 @@
   </si>
   <si>
     <t>Error Screenshot</t>
+  </si>
+  <si>
+    <t>New-letter signup</t>
+  </si>
+  <si>
+    <t>Form tag not used</t>
+  </si>
+  <si>
+    <t>Form tag to be used</t>
+  </si>
+  <si>
+    <t>Form Tag to be used                    &lt;form&gt;                                                                       &lt;input&gt;                                                         &lt;button&gt;                                           &lt;/form&gt;                                                 Other form elements in between the form tags</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>Featured books</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>In &lt;img alt="book_name"&gt;</t>
+  </si>
+  <si>
+    <t>alt="about book"</t>
+  </si>
+  <si>
+    <t>The mistake is in all the three sections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -185,19 +207,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -207,6 +217,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,6 +596,94 @@
         <a:xfrm>
           <a:off x="6581775" y="5219700"/>
           <a:ext cx="1076325" cy="356351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3857625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="5657850"/>
+          <a:ext cx="3781425" cy="1365796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4010025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="7381875"/>
+          <a:ext cx="3990975" cy="314369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -845,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +969,7 @@
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,223 +978,329 @@
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2"/>
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B14:B18"/>
+  <mergeCells count="38">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D17:D18"/>
@@ -1094,15 +1313,14 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
